--- a/python/lin/main SD t1=6 t2=3.xlsx
+++ b/python/lin/main SD t1=6 t2=3.xlsx
@@ -483,32 +483,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>6.01e+00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5.98e+00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>5.99e+00</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.0733</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5.95e+00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.0536</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.03e+00</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.0836</t>
+          <t>0.0171</t>
         </is>
       </c>
     </row>
@@ -525,32 +525,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.89e+00</t>
+          <t>2.94e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.225</t>
+          <t>0.0601</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.92e+00</t>
+          <t>3.09e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.109</t>
+          <t>0.0618</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.67e+00</t>
+          <t>3.05e+00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.0584</t>
         </is>
       </c>
     </row>
@@ -567,32 +567,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.94e+00</t>
+          <t>2.93e+00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.226</t>
+          <t>0.0591</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.91e+00</t>
+          <t>3.09e+00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.106</t>
+          <t>0.0607</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.67e+00</t>
+          <t>3.06e+00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.277</t>
+          <t>0.0575</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.9e-06</t>
+          <t>7.69e-07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.81e-06</t>
+          <t>7.93e-07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.56e-06</t>
+          <t>7.62e-07</t>
         </is>
       </c>
     </row>
